--- a/Project_Notebook.xlsx
+++ b/Project_Notebook.xlsx
@@ -69,6 +69,7 @@
     <definedName name="YYYYMMDD">Date!$B$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -362,7 +363,7 @@
     <t>Station Master URL</t>
   </si>
   <si>
-    <t>http://10.153.200.23:8080/MES</t>
+    <t>https://usmes.delta.corp/MES</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1507,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,7 +1530,7 @@
       </c>
       <c r="B2" t="str">
         <f>baseURL &amp; "/FormBuilderPages.jsf?funcode=LineStationConfiguration&amp;menuid=970"</f>
-        <v>http://10.153.200.23:8080/MES/FormBuilderPages.jsf?funcode=LineStationConfiguration&amp;menuid=970</v>
+        <v>https://usmes.delta.corp/MES/FormBuilderPages.jsf?funcode=LineStationConfiguration&amp;menuid=970</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1538,7 +1539,7 @@
       </c>
       <c r="B3" t="str">
         <f>baseURL &amp; "/FormBuilderPages.jsf?funcode=Station%20Master%20Configuration&amp;menuid=77"</f>
-        <v>http://10.153.200.23:8080/MES/FormBuilderPages.jsf?funcode=Station%20Master%20Configuration&amp;menuid=77</v>
+        <v>https://usmes.delta.corp/MES/FormBuilderPages.jsf?funcode=Station%20Master%20Configuration&amp;menuid=77</v>
       </c>
     </row>
   </sheetData>
@@ -1608,7 +1609,7 @@
       </c>
       <c r="B4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45426</v>
+        <v>45428</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -1633,7 +1634,7 @@
       </c>
       <c r="B8" s="43" t="str">
         <f ca="1">TEXT(Date_Input+Days, preferred_date_format)</f>
-        <v>2024-05-21</v>
+        <v>2024-05-23</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -1642,7 +1643,7 @@
       </c>
       <c r="B9" s="43" t="str">
         <f ca="1">TEXT(WORKDAY(Date_Input, Days),preferred_date_format)</f>
-        <v>2024-05-23</v>
+        <v>2024-05-27</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1651,7 +1652,7 @@
       </c>
       <c r="B10" s="44" t="str">
         <f ca="1">TEXT(Date_Input,"YYYYMMDD")</f>
-        <v>20240514</v>
+        <v>20240516</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1661,7 +1662,7 @@
       </c>
       <c r="B12" s="43" t="str">
         <f ca="1">TEXT(TODAY(), preferred_date_format)</f>
-        <v>2024-05-14</v>
+        <v>2024-05-16</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
